--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-377421.055944946</v>
+        <v>-379909.7949744618</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>157.4775982853342</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>252.424600231013</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,7 +829,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>61.73332682041251</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>168.424344975067</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>243.4420291455263</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>88.01624809068203</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>24.10372922669589</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.3738088410911</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>139.1071548763986</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>115.8995576144846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>21.86980176345842</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.51477175135552</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>118.8520688186515</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>38.21875275158361</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>66.24118421664592</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.13809416960228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>194.0265223505637</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986295</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>140.3829797864952</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>113.8415422301047</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2533,16 +2533,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>2.60701007315213</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>98.03921036659332</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,19 +3904,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308926</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002295</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1108.149668028411</v>
+        <v>1795.666214589422</v>
       </c>
       <c r="C2" t="n">
-        <v>1108.149668028411</v>
+        <v>1426.70369764901</v>
       </c>
       <c r="D2" t="n">
-        <v>749.8839694216604</v>
+        <v>1068.43799904226</v>
       </c>
       <c r="E2" t="n">
-        <v>364.0957168234162</v>
+        <v>682.6497464440154</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,7 +4346,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4364,16 +4364,16 @@
         <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2611.123253599539</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2258.354598329424</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1884.888840068344</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1494.749508092533</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686071</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080118</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.724875630924</v>
+        <v>2078.679253373406</v>
       </c>
       <c r="C4" t="n">
-        <v>573.7886927030171</v>
+        <v>1909.7430704455</v>
       </c>
       <c r="D4" t="n">
-        <v>423.6720532906813</v>
+        <v>1759.626431033164</v>
       </c>
       <c r="E4" t="n">
-        <v>275.7589597082882</v>
+        <v>1611.713337450771</v>
       </c>
       <c r="F4" t="n">
-        <v>128.8690122103779</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T4" t="n">
-        <v>1735.608663915319</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="U4" t="n">
-        <v>1735.608663915319</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="V4" t="n">
-        <v>1480.924175709432</v>
+        <v>2879.23544923011</v>
       </c>
       <c r="W4" t="n">
-        <v>1191.507005672471</v>
+        <v>2709.109848245193</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5174547744541</v>
+        <v>2481.120297347176</v>
       </c>
       <c r="Y4" t="n">
-        <v>742.724875630924</v>
+        <v>2260.327718203646</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>769.4825048886539</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>3126.409852034566</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2752.944093773487</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>652.894418388452</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1338.552213959899</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1338.552213959899</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W7" t="n">
-        <v>1049.135043922938</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.135043922938</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y7" t="n">
-        <v>828.3424647794079</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>957.5907980264828</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>546.6048932368753</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2307.673781234102</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X8" t="n">
-        <v>1934.208022973022</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1934.208022973022</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.6408346941415</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C10" t="n">
-        <v>458.6408346941415</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
         <v>163.8377936138381</v>
@@ -4957,7 +4957,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X10" t="n">
-        <v>651.920382101508</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y10" t="n">
-        <v>640.2892995243812</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1055.185257670615</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C13" t="n">
-        <v>886.2490747427084</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="D13" t="n">
-        <v>736.1324353303727</v>
+        <v>650.3841300523919</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2193417479796</v>
+        <v>502.4710364699988</v>
       </c>
       <c r="F13" t="n">
-        <v>441.3293942500692</v>
+        <v>355.5810889720884</v>
       </c>
       <c r="G13" t="n">
-        <v>274.1332949649491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>132.4214638071472</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5233,16 +5233,16 @@
         <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W13" t="n">
-        <v>1685.615852542402</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X13" t="n">
-        <v>1457.626301644385</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.833722500855</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="14">
@@ -5279,19 +5279,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,16 +5361,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1781.474694297818</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263528</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172276</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172276</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135315</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237298</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093768</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6449,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6476,25 +6476,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,25 +6713,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7445,16 +7445,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.8849512187377</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>235.1982686922827</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>75.32765823912189</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>46.67206947361737</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.04708356698191</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272898</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.28295407562292</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>140.4465591824925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>92.15795203868046</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>145.801494602749</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>53.40527886852314</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.39475227997585</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350416</v>
+        <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="I2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="J2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="K2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="L2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="M2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="K2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="L2" t="n">
-        <v>282501.3098915022</v>
-      </c>
-      <c r="M2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="N2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363161</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31937.37202069068</v>
+        <v>31937.3720206907</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26433,16 +26433,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.0322517935</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179349</v>
       </c>
       <c r="L4" t="n">
         <v>11167.0322517935</v>
@@ -26454,10 +26454,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488705</v>
+        <v>19157.89151488704</v>
       </c>
       <c r="P4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1217073.132374635</v>
+        <v>-1217329.001614045</v>
       </c>
       <c r="C6" t="n">
-        <v>89076.61186796131</v>
+        <v>89076.61186796118</v>
       </c>
       <c r="D6" t="n">
-        <v>89076.61186796094</v>
+        <v>89076.61186796124</v>
       </c>
       <c r="E6" t="n">
-        <v>-155200.7139915538</v>
+        <v>-155235.4519169893</v>
       </c>
       <c r="F6" t="n">
-        <v>170211.7478158017</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="G6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="H6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903659</v>
       </c>
       <c r="I6" t="n">
-        <v>170211.7478158016</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="J6" t="n">
-        <v>-47319.45458147586</v>
+        <v>-47354.19250691167</v>
       </c>
       <c r="K6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="L6" t="n">
-        <v>170211.7478158016</v>
+        <v>170177.0098903656</v>
       </c>
       <c r="M6" t="n">
-        <v>85156.71988028979</v>
+        <v>85121.98195485416</v>
       </c>
       <c r="N6" t="n">
-        <v>170211.7478158015</v>
+        <v>170177.0098903658</v>
       </c>
       <c r="O6" t="n">
-        <v>145614.8940900651</v>
+        <v>145614.8940900652</v>
       </c>
       <c r="P6" t="n">
-        <v>165042.612083697</v>
+        <v>165042.6120836968</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,31 +26963,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>123.3879405522698</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14.20017876409463</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>104.2924814386157</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>118.098653361524</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>163.4340165961851</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>261.224720626731</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>143.1430918719319</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>11.83802936452173</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>271.8145707770549</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>233.3414111029284</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>157.9621784184789</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>207.0698816007393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28299,13 +28299,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29800,7 +29800,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>197.6412480909884</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32953,7 +32953,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159425</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
